--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0100A8AB-DD62-4DCF-A463-7E749958A3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\UseCaseConfigFile\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063BA55-AA7F-4C3F-ABE7-AC2036C5D9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="3" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="370">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -1106,478 +1110,34 @@
     <t>D_MCCMsettings</t>
   </si>
   <si>
-    <t>OSFNBACmpCd45</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd46</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd47</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd48</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd49</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd50</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd51</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd52</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd53</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd54</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd55</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd56</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd57</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd58</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd59</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd60</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd61</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd62</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd63</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd64</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd65</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd66</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd67</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd68</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd69</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd70</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd71</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd72</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd73</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd74</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd75</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd76</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd77</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd78</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd79</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd80</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd81</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd82</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd83</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd84</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd85</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd86</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd87</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd88</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd89</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd90</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd91</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd92</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd93</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd94</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd95</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd96</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd97</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd98</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd99</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd100</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd101</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd102</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd103</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd104</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd105</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd106</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd107</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd108</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd109</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd110</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd111</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd112</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd113</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd114</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd115</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd116</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd117</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd118</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd119</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd120</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd121</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd122</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd123</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd124</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd125</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd126</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd127</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd128</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd129</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd130</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd131</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd132</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd133</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd134</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd135</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd136</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd137</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd138</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd139</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd140</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd141</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd142</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd143</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd144</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd145</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd146</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd147</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd148</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd149</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd150</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd151</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd152</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd153</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd154</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd155</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd156</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd157</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd158</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd159</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd160</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd161</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd162</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd163</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd164</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd165</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd166</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd167</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd168</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd169</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd170</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd171</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd172</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd173</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd174</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd175</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd176</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd177</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd178</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd179</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd180</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd181</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd182</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd183</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd184</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd185</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd186</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd187</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd188</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd189</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd190</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd191</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd192</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd193</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd194</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd195</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd196</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd197</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd198</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd199</t>
-  </si>
-  <si>
-    <t>OSFNBACmpCd200</t>
-  </si>
-  <si>
     <t>CalcNBACmpCd42</t>
   </si>
   <si>
     <t>CalcNBACmpCd43</t>
+  </si>
+  <si>
+    <t>OSFSClassificationDefaultValue</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>OSFSClassificationDefault</t>
+  </si>
+  <si>
+    <t>MaxNoOfAcntsForOSFGetNBAPerRqst</t>
+  </si>
+  <si>
+    <t>MaxNoOfAcntsForOSFGetNBAPerRqstValue</t>
+  </si>
+  <si>
+    <t>OSFGetNBATimeoutValue</t>
+  </si>
+  <si>
+    <t>OSFContainerNameValue</t>
+  </si>
+  <si>
+    <t>OSFGetNBATimeout</t>
   </si>
 </sst>
 </file>
@@ -3764,7 +3324,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3799,7 +3359,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3812,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,17 +3392,20 @@
     <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>349</v>
@@ -3866,21 +3429,30 @@
         <v>356</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
         <v>349</v>
@@ -3909,780 +3481,14 @@
       <c r="L2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>515</v>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\UseCaseConfigFile\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063BA55-AA7F-4C3F-ABE7-AC2036C5D9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{964EB19F-CFBA-4FC3-BBAB-4571DEC76E75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView tabRatio="847" windowHeight="10920" windowWidth="15405" xWindow="1860" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="345"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
-    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
-    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
+    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
+    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
+    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="372">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -111,18 +107,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd47</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd48</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd49</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd50</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd51</t>
   </si>
   <si>
@@ -573,18 +557,6 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd46</t>
-  </si>
-  <si>
-    <t>DMPCmpCd47</t>
-  </si>
-  <si>
-    <t>DMPCmpCd48</t>
-  </si>
-  <si>
-    <t>DMPCmpCd49</t>
-  </si>
-  <si>
     <t>DMPCmpCd50</t>
   </si>
   <si>
@@ -1110,12 +1082,6 @@
     <t>D_MCCMsettings</t>
   </si>
   <si>
-    <t>CalcNBACmpCd42</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd43</t>
-  </si>
-  <si>
     <t>OSFSClassificationDefaultValue</t>
   </si>
   <si>
@@ -1138,12 +1104,49 @@
   </si>
   <si>
     <t>OSFGetNBATimeout</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd45</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd46</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd47</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd48</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd49</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd50</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd51</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd52</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd53</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd54</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd55</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,20 +1194,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1221,10 +1224,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1259,7 +1262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1311,7 +1314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1422,21 +1425,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1453,7 +1456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1505,43 +1508,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:W155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1579,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1600,35 +1603,35 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -1644,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1677,799 +1680,786 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="V2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="W2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>180</v>
-      </c>
-    </row>
+    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,7 +2475,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2494,832 +2484,790 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row customFormat="1" r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row customFormat="1" r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row customFormat="1" r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row customFormat="1" r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row customFormat="1" r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row customFormat="1" r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row customFormat="1" r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row customFormat="1" r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row customFormat="1" r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row customFormat="1" r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>335</v>
-      </c>
-    </row>
+    <row customFormat="1" r="153" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="154" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="155" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="156" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3330,31 +3278,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,127 +3286,175 @@
         <v>361</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C8BA24A3-B657-4B34-AF5F-25732F641F56}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
         <v>349</v>
       </c>
-      <c r="E2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" t="s">
-        <v>357</v>
-      </c>
       <c r="K2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3493,8 +3465,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{964EB19F-CFBA-4FC3-BBAB-4571DEC76E75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA56FD56-F7FD-4D18-B3B7-39AD529E86C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="847" windowHeight="10920" windowWidth="15405" xWindow="1860" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="345"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15435" windowHeight="11820" tabRatio="731" activeTab="3" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
-    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
-    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
-    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
+    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
+    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G17"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="371">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>DMPCampCd</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd51</t>
   </si>
   <si>
     <t>OutBoundCmpCd52</t>
@@ -1146,7 +1143,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1194,20 +1190,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1224,10 +1220,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1262,7 +1258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1314,7 +1310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1425,21 +1421,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1456,7 +1452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1508,43 +1504,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:X155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1582,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1603,30 +1599,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1647,7 +1643,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1680,776 +1676,776 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V2" t="s">
+        <v>328</v>
+      </c>
+      <c r="W2" t="s">
         <v>329</v>
       </c>
-      <c r="W2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:D156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -2457,9 +2453,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,7 +2471,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2484,769 +2480,769 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>202</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>212</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>215</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>221</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>226</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>227</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>230</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>235</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>236</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>239</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>240</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>241</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>242</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>243</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>244</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>245</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>246</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>248</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>249</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>250</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>251</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>253</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>255</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>256</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>257</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>260</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>261</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>264</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>265</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>266</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>267</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>268</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>269</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>270</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>271</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>273</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>274</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>275</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>277</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>279</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>280</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>281</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>282</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>283</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>284</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>286</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>290</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>292</v>
       </c>
     </row>
-    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>293</v>
       </c>
     </row>
-    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>294</v>
       </c>
     </row>
-    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>295</v>
       </c>
     </row>
-    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>296</v>
       </c>
     </row>
-    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="123" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>297</v>
       </c>
     </row>
-    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>298</v>
       </c>
     </row>
-    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>301</v>
       </c>
     </row>
-    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>302</v>
       </c>
     </row>
-    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>303</v>
       </c>
     </row>
-    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>304</v>
       </c>
     </row>
-    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>305</v>
       </c>
     </row>
-    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>306</v>
       </c>
     </row>
-    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>307</v>
       </c>
     </row>
-    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>310</v>
       </c>
     </row>
-    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>311</v>
       </c>
     </row>
-    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>312</v>
       </c>
     </row>
-    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>313</v>
       </c>
     </row>
-    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>314</v>
       </c>
     </row>
-    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>315</v>
       </c>
     </row>
-    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>316</v>
       </c>
     </row>
-    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>317</v>
       </c>
     </row>
-    <row customFormat="1" r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>318</v>
       </c>
     </row>
-    <row customFormat="1" r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>319</v>
       </c>
     </row>
-    <row customFormat="1" r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>320</v>
       </c>
     </row>
-    <row customFormat="1" r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>322</v>
       </c>
     </row>
-    <row customFormat="1" r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>323</v>
       </c>
     </row>
-    <row customFormat="1" r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>325</v>
       </c>
     </row>
-    <row customFormat="1" r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>326</v>
       </c>
     </row>
-    <row customFormat="1" r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row customFormat="1" r="153" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="154" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="155" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="156" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3254,207 +3250,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="18.42578125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
         <v>341</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>342</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>343</v>
       </c>
-      <c r="G2" t="s">
-        <v>344</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3465,8 +3461,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA56FD56-F7FD-4D18-B3B7-39AD529E86C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{39E4D10B-5F34-48D4-82AF-1C9F33BD113F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15435" windowHeight="11820" tabRatio="731" activeTab="3" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15465" xWindow="2340" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="2340"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
-    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
-    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
+    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
+    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
+    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:L6"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="361">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -552,36 +552,6 @@
   </si>
   <si>
     <t>OutBoundCmpCd200</t>
-  </si>
-  <si>
-    <t>DMPCmpCd50</t>
-  </si>
-  <si>
-    <t>DMPCmpCd51</t>
-  </si>
-  <si>
-    <t>DMPCmpCd52</t>
-  </si>
-  <si>
-    <t>DMPCmpCd53</t>
-  </si>
-  <si>
-    <t>DMPCmpCd54</t>
-  </si>
-  <si>
-    <t>DMPCmpCd55</t>
-  </si>
-  <si>
-    <t>DMPCmpCd56</t>
-  </si>
-  <si>
-    <t>DMPCmpCd57</t>
-  </si>
-  <si>
-    <t>DMPCmpCd58</t>
-  </si>
-  <si>
-    <t>DMPCmpCd59</t>
   </si>
   <si>
     <t>DMPCmpCd60</t>
@@ -1143,6 +1113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1190,20 +1161,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1220,10 +1191,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1258,7 +1229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1310,7 +1281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1421,21 +1392,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1452,7 +1423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1504,15 +1475,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:W155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:X155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
@@ -1520,27 +1491,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1578,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1599,22 +1570,22 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1676,786 +1647,786 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="V2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="W2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2471,7 +2442,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2480,769 +2451,729 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="111" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="119" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="121" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="128" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="130" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="132" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="134" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="139" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="140" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="143" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="143" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="144" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="145" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="146" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="147" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="148" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="149" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="150" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="151" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="152" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="153" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="154" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="155" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="156" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3250,207 +3181,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3461,8 +3391,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="361">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -1587,13 +1587,13 @@
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{39E4D10B-5F34-48D4-82AF-1C9F33BD113F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:801_{96DF9E6B-B069-4AA4-9412-44DEE35BBB4B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15465" xWindow="2340" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="2340"/>
+    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15525" xWindow="1170" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="1170"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="345">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -554,51 +554,6 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd60</t>
-  </si>
-  <si>
-    <t>DMPCmpCd61</t>
-  </si>
-  <si>
-    <t>DMPCmpCd62</t>
-  </si>
-  <si>
-    <t>DMPCmpCd63</t>
-  </si>
-  <si>
-    <t>DMPCmpCd64</t>
-  </si>
-  <si>
-    <t>DMPCmpCd65</t>
-  </si>
-  <si>
-    <t>DMPCmpCd66</t>
-  </si>
-  <si>
-    <t>DMPCmpCd67</t>
-  </si>
-  <si>
-    <t>DMPCmpCd68</t>
-  </si>
-  <si>
-    <t>DMPCmpCd69</t>
-  </si>
-  <si>
-    <t>DMPCmpCd70</t>
-  </si>
-  <si>
-    <t>DMPCmpCd71</t>
-  </si>
-  <si>
-    <t>DMPCmpCd72</t>
-  </si>
-  <si>
-    <t>DMPCmpCd73</t>
-  </si>
-  <si>
-    <t>DMPCmpCd74</t>
-  </si>
-  <si>
     <t>DMPCmpCd75</t>
   </si>
   <si>
@@ -1071,9 +1026,6 @@
   </si>
   <si>
     <t>OSFGetNBATimeout</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd45</t>
   </si>
   <si>
     <t>CalcNBACmpCd46</t>
@@ -1549,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1570,19 +1522,19 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1614,7 +1566,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1647,13 +1599,13 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="V2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="W2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -2419,7 +2371,7 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,7 +2394,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3076,81 +3028,21 @@
         <v>301</v>
       </c>
     </row>
-    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>316</v>
-      </c>
-    </row>
+    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="143" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="144" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="145" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -3188,79 +3080,79 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3297,90 +3189,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N2">
         <v>5</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="345">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -1539,13 +1539,13 @@
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{96DF9E6B-B069-4AA4-9412-44DEE35BBB4B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:801_{0BC7F82E-6E29-4FA0-8FCF-011B1DF45BFB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15525" xWindow="1170" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="1170"/>
+    <workbookView tabRatio="731" windowHeight="11820" windowWidth="15585" xWindow="780" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="780"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
@@ -14,7 +14,7 @@
     <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L6"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="325">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -107,66 +107,9 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd52</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd53</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd54</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd55</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd56</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd57</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd58</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd59</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd60</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd61</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd62</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd63</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd64</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd65</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd66</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd67</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd68</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd69</t>
   </si>
   <si>
-    <t>OutBoundCmpCd70</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd71</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd72</t>
   </si>
   <si>
@@ -552,9 +495,6 @@
   </si>
   <si>
     <t>OutBoundCmpCd200</t>
-  </si>
-  <si>
-    <t>DMPCmpCd75</t>
   </si>
   <si>
     <t>DMPCmpCd76</t>
@@ -1437,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1522,30 +1462,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1566,7 +1506,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1599,760 +1539,680 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="V2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="W2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>175</v>
-      </c>
-    </row>
+    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2394,7 +2254,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2405,627 +2265,627 @@
     </row>
     <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -3080,79 +2940,79 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3189,90 +3049,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="N2">
         <v>5</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{0BC7F82E-6E29-4FA0-8FCF-011B1DF45BFB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:801_{C66C1CE3-9C78-47AE-8EAE-EED01F88B63F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView tabRatio="731" windowHeight="11820" windowWidth="15585" xWindow="780" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="780"/>
+    <workbookView activeTab="2" tabRatio="731" windowHeight="11820" windowWidth="15615" xWindow="1560" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="1560"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
@@ -14,7 +14,7 @@
     <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:L17"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="329">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -107,9 +107,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd69</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd72</t>
   </si>
   <si>
@@ -971,34 +968,49 @@
     <t>CalcNBACmpCd46</t>
   </si>
   <si>
-    <t>CalcNBACmpCd47</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd48</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd49</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd50</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd51</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd52</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd53</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd54</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd55</t>
-  </si>
-  <si>
     <t>CalcNBACmpCd56</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd57</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd58</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd59</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd60</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd61</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd62</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd63</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd64</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd65</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd66</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd67</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd68</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd69</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd70</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1462,30 +1474,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1506,7 +1518,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1539,658 +1551,658 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" t="s">
         <v>283</v>
-      </c>
-      <c r="W2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2266,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2265,627 +2277,627 @@
     </row>
     <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -2925,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,79 +2952,99 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3049,90 +3081,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
         <v>295</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>296</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>297</v>
       </c>
-      <c r="G2" t="s">
-        <v>298</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N2">
         <v>5</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{C66C1CE3-9C78-47AE-8EAE-EED01F88B63F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:801_{D78EBEA3-5809-45E5-9096-B06EC6653978}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="731" windowHeight="11820" windowWidth="15615" xWindow="1560" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="1560"/>
+    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15975" xWindow="780" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="780"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="310">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -107,30 +107,12 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd72</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd73</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd74</t>
   </si>
   <si>
-    <t>OutBoundCmpCd75</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd76</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd77</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd78</t>
   </si>
   <si>
-    <t>OutBoundCmpCd79</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd80</t>
   </si>
   <si>
@@ -494,54 +476,9 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd76</t>
-  </si>
-  <si>
-    <t>DMPCmpCd77</t>
-  </si>
-  <si>
-    <t>DMPCmpCd78</t>
-  </si>
-  <si>
-    <t>DMPCmpCd79</t>
-  </si>
-  <si>
-    <t>DMPCmpCd80</t>
-  </si>
-  <si>
     <t>DMPCmpCd81</t>
   </si>
   <si>
-    <t>DMPCmpCd82</t>
-  </si>
-  <si>
-    <t>DMPCmpCd83</t>
-  </si>
-  <si>
-    <t>DMPCmpCd84</t>
-  </si>
-  <si>
-    <t>DMPCmpCd85</t>
-  </si>
-  <si>
-    <t>DMPCmpCd86</t>
-  </si>
-  <si>
-    <t>DMPCmpCd87</t>
-  </si>
-  <si>
-    <t>DMPCmpCd88</t>
-  </si>
-  <si>
-    <t>DMPCmpCd89</t>
-  </si>
-  <si>
-    <t>DMPCmpCd90</t>
-  </si>
-  <si>
-    <t>DMPCmpCd91</t>
-  </si>
-  <si>
     <t>DMPCmpCd92</t>
   </si>
   <si>
@@ -965,52 +902,58 @@
     <t>OSFGetNBATimeout</t>
   </si>
   <si>
-    <t>CalcNBACmpCd46</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd56</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd57</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd58</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd59</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd60</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd61</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd62</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd63</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd64</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd65</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd66</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd67</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd68</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd69</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd70</t>
+    <t>CalcNBACmpCd99</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd100</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd101</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd102</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd103</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd104</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd105</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd106</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd107</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd108</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd109</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd110</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd111</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd112</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd113</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd114</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd115</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd116</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1333,7 @@
   <dimension ref="A1:X155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1474,19 +1417,19 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1518,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1551,660 +1494,628 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="V2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="W2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>155</v>
-      </c>
-    </row>
+    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25"/>
@@ -2242,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2177,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2277,629 +2188,565 @@
     </row>
     <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>280</v>
-      </c>
-    </row>
+        <v>259</v>
+      </c>
+    </row>
+    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -2937,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,99 +2799,109 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row customFormat="1" r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row customFormat="1" r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row customFormat="1" r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row customFormat="1" r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row customFormat="1" r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3081,90 +2938,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="N2">
         <v>5</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{D78EBEA3-5809-45E5-9096-B06EC6653978}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA26F2F7-3952-4A56-B351-9F91249F7EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="731" windowHeight="11820" windowWidth="15975" xWindow="780" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="780"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15495" windowHeight="11820" tabRatio="731" activeTab="2" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
-    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
-    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
-    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
+    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
+    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -107,12 +107,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd74</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd78</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd80</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd81</t>
-  </si>
-  <si>
     <t>DMPCmpCd92</t>
   </si>
   <si>
@@ -842,9 +833,6 @@
     <t>CalcNBACampCd</t>
   </si>
   <si>
-    <t>NBAOF</t>
-  </si>
-  <si>
     <t>Internal_REST_URL_OSF</t>
   </si>
   <si>
@@ -902,27 +890,6 @@
     <t>OSFGetNBATimeout</t>
   </si>
   <si>
-    <t>CalcNBACmpCd99</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd100</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd101</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd102</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd103</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd104</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd105</t>
-  </si>
-  <si>
     <t>CalcNBACmpCd106</t>
   </si>
   <si>
@@ -954,13 +921,18 @@
   </si>
   <si>
     <t>CalcNBACmpCd116</t>
+  </si>
+  <si>
+    <t>TrackTest1</t>
+  </si>
+  <si>
+    <t>Track1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,20 +980,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1038,10 +1010,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1076,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1128,7 +1100,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1239,21 +1211,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1270,7 +1242,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1322,43 +1294,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:X155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:W123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1396,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1417,30 +1389,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1461,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1494,1425 +1466,632 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="W2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:D156"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row customFormat="1" r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customFormat="1" r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row customFormat="1" r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customFormat="1" r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row customFormat="1" r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customFormat="1" r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row customFormat="1" r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row customFormat="1" r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customFormat="1" r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row customFormat="1" r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row customFormat="1" r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row customFormat="1" r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row customFormat="1" r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customFormat="1" r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row customFormat="1" r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row customFormat="1" r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row customFormat="1" r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customFormat="1" r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row customFormat="1" r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row customFormat="1" r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row customFormat="1" r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row customFormat="1" r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row customFormat="1" r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customFormat="1" r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row customFormat="1" r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row customFormat="1" r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row customFormat="1" r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row customFormat="1" r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row customFormat="1" r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customFormat="1" r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customFormat="1" r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row customFormat="1" r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row customFormat="1" r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row customFormat="1" r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row customFormat="1" r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row customFormat="1" r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row customFormat="1" r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row customFormat="1" r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row customFormat="1" r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row customFormat="1" r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customFormat="1" r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row customFormat="1" r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row customFormat="1" r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row customFormat="1" r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row customFormat="1" r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row customFormat="1" r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row customFormat="1" r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row customFormat="1" r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customFormat="1" r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row customFormat="1" r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row customFormat="1" r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row customFormat="1" r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row customFormat="1" r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row customFormat="1" r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row customFormat="1" r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row customFormat="1" r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row customFormat="1" r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row customFormat="1" r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row customFormat="1" r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row customFormat="1" r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row customFormat="1" r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row customFormat="1" r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row customFormat="1" r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row customFormat="1" r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row customFormat="1" r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row customFormat="1" r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row customFormat="1" r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row customFormat="1" r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row customFormat="1" r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row customFormat="1" r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row customFormat="1" r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row customFormat="1" r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row customFormat="1" r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row customFormat="1" r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row customFormat="1" r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row customFormat="1" r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row customFormat="1" r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row customFormat="1" r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row customFormat="1" r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row customFormat="1" r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row customFormat="1" r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customFormat="1" r="112" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="113" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="114" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="115" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="116" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="117" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="118" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="119" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="120" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="121" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="122" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="123" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="124" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="125" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="126" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="127" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="128" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="129" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="130" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="131" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="132" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="133" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="134" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="135" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="136" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="137" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="138" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="139" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="140" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="141" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="142" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="143" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="144" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="145" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="146" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="147" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="148" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="149" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="150" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="151" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="152" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="153" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="154" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="155" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="156" spans="1:3" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2920,108 +2099,801 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>278</v>
       </c>
-      <c r="I2" t="s">
-        <v>282</v>
-      </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -3032,8 +2904,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA26F2F7-3952-4A56-B351-9F91249F7EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{67941A60-112F-4277-9736-A0508916DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15495" windowHeight="11820" tabRatio="731" activeTab="2" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15525" windowHeight="11820" tabRatio="731" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="295">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -107,24 +107,9 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd80</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd81</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd82</t>
   </si>
   <si>
-    <t>OutBoundCmpCd83</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd84</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd85</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd86</t>
   </si>
   <si>
@@ -888,9 +873,6 @@
   </si>
   <si>
     <t>OSFGetNBATimeout</t>
-  </si>
-  <si>
-    <t>CalcNBACmpCd106</t>
   </si>
   <si>
     <t>CalcNBACmpCd107</t>
@@ -1304,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1389,19 +1371,19 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1466,620 +1448,596 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="W2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>147</v>
-      </c>
-    </row>
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2117,7 +2075,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2128,547 +2086,547 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2695,13 +2653,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2709,13 +2667,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2723,52 +2681,52 @@
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2810,90 +2768,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J2" t="s">
-        <v>277</v>
-      </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N2">
         <v>5</v>

--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{67941A60-112F-4277-9736-A0508916DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{67941A60-112F-4277-9736-A0508916DD46}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15525" windowHeight="11820" tabRatio="731" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView tabRatio="731" windowHeight="11820" windowWidth="15525" xWindow="390" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="390"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
-    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
-    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
+    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
+    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
+    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="295">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -915,6 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,20 +963,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -992,10 +993,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1030,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1082,7 +1083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1193,21 +1194,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1224,7 +1225,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1276,15 +1277,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:W123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:X123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1292,27 +1293,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1386,15 +1387,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1457,599 +1458,599 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:C111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2057,9 +2058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,13 +2632,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -2645,10 +2646,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2668,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>293</v>
@@ -2679,70 +2680,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="13" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="14" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="15" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="16" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="17" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2750,20 +2751,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2862,8 +2863,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{67941A60-112F-4277-9736-A0508916DD46}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A56B08C7-8E8F-47C7-8FFC-4297C90FC3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="731" windowHeight="11820" windowWidth="15525" xWindow="390" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="390"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15555" windowHeight="11820" tabRatio="731" activeTab="2" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
-    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
-    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
-    <sheet name="PegaTestDataOSF" r:id="rId4" sheetId="4"/>
+    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
+    <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="294">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>DMPCampCd</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd82</t>
   </si>
   <si>
     <t>OutBoundCmpCd86</t>
@@ -915,7 +912,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,20 +959,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -993,10 +989,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1031,7 +1027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1083,7 +1079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1194,21 +1190,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1225,7 +1221,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1277,43 +1273,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:X123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1351,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1372,30 +1368,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1416,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1449,608 +1445,608 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V2" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" t="s">
         <v>253</v>
       </c>
-      <c r="W2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A512B4A0-7B58-467D-9CCF-09B916546B9F}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:D111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2058,9 +2054,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,7 +2072,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2087,580 +2083,580 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2668,82 +2664,82 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>294</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="14" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="15" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="16" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="17" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB818E5-CECB-4FCB-84EA-9E4C6FA71764}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2751,108 +2747,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>265</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>266</v>
       </c>
-      <c r="G2" t="s">
-        <v>267</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -2863,8 +2859,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{832C59E0-B304-4F4E-A845-F0D60FC0627B}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UseCaseConfigFile/TestData/PegaTestData.xlsx
+++ b/UseCaseConfigFile/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A56B08C7-8E8F-47C7-8FFC-4297C90FC3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC4E04D7-14C8-49E1-A4A4-F2766510186C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15555" windowHeight="11820" tabRatio="731" activeTab="2" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15585" windowHeight="11820" tabRatio="731" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="PegaTestDataOSF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,9 +92,6 @@
     <t>GetDataExtractDetailsIN</t>
   </si>
   <si>
-    <t>DPF_MMC_NBA_ONB_20200804</t>
-  </si>
-  <si>
     <t>D_LatestNBACampaignFlag</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>Track1</t>
+  </si>
+  <si>
+    <t>DPF_MMC_NBA_ONB</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
     <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="21" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
@@ -1347,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1365,33 +1365,33 @@
         <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1409,10 +1409,10 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="Q2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
       </c>
       <c r="S2">
         <v>90</v>
@@ -1445,588 +1445,588 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V2" t="s">
+        <v>251</v>
+      </c>
+      <c r="W2" t="s">
         <v>252</v>
-      </c>
-      <c r="W2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2083,547 +2083,547 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2650,13 +2650,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2664,13 +2664,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
         <v>292</v>
-      </c>
-      <c r="C2" t="s">
-        <v>293</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2678,52 +2678,52 @@
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2765,90 +2765,90 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" t="s">
         <v>263</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>264</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>265</v>
       </c>
-      <c r="G2" t="s">
-        <v>266</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N2">
         <v>5</v>
